--- a/competences2.xlsx
+++ b/competences2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\simple-portfolio\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2AFA163-DFA8-4884-BFED-6D354A7C453E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE083D31-1F64-42B5-B335-2B97EA8F6A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
